--- a/pc/public/import_template/base/background_task.xlsx
+++ b/pc/public/import_template/base/background_task.xlsx
@@ -52,18 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.create_usr_id_lbl%&gt;&lt;%selectList.create_usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.create_usr_id.join(",") }"` })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.create_time%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.update_usr_id_lbl%&gt;&lt;%selectList.update_usr_id = data.findAllUsr.map((item) =&gt; item.lbl)%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.update_usr_id.join(",") }"` })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.update_time%&gt;</t>
   </si>
 </sst>
 </file>
@@ -419,18 +407,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pc/public/import_template/base/background_task.xlsx
+++ b/pc/public/import_template/base/background_task.xlsx
@@ -45,10 +45,10 @@
     <t xml:space="preserve">&lt;%=comment.err_msg%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.begin_time%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.end_time%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.begin_time_lbl%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.end_time_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>

--- a/pc/public/import_template/base/background_task.xlsx
+++ b/pc/public/import_template/base/background_task.xlsx
@@ -33,10 +33,10 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsBackgroundTask;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.state_lbl%&gt;&lt;%selectList.state = data.getDict.find((item) =&gt; item[0]?.code === "background_task_state")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.state.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.type_lbl%&gt;&lt;%selectList.type = data.getDict.find((item) =&gt; item[0]?.code === "background_task_type")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%_dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.type.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.state_lbl%&gt;&lt;%selectList.state = data.getDict.find((item) =&gt; item[0]?.code === "background_task_state")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.state &amp;&amp; selectList.state.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.state.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.type_lbl%&gt;&lt;%selectList.type = data.getDict.find((item) =&gt; item[0]?.code === "background_task_type")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.type &amp;&amp; selectList.type.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.type.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.result%&gt;</t>

--- a/pc/public/import_template/base/background_task.xlsx
+++ b/pc/public/import_template/base/background_task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\nest\codegen\src\template\pc\public\import_template\[[mod]]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB659D96-3BBF-4444-817C-443DDE4EFA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69147A71-290F-4949-8C4C-2AE40FC67C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsBackgroundTask;%&gt;&lt;%=comment.lbl%&gt;</t>
+    <t xml:space="preserve">&lt;%initJs: const data = _data_.data; const sheetName = _data_.sheetName; const selectList = { }; const comment = data.getFieldCommentsBackgroundTask;%&gt;&lt;%_setSheetName_(sheetName)%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.state_lbl%&gt;&lt;%selectList.state = data.getDict.find((item) =&gt; item[0]?.code === "background_task_state")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.state &amp;&amp; selectList.state.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.state.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -94,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,29 +394,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
